--- a/05_Entregable 3/previo/Dominio de Valores/DdV_09_MAATE_Rescates y Retenciones CONSOLIDADO NACIONAL_2024.xlsx
+++ b/05_Entregable 3/previo/Dominio de Valores/DdV_09_MAATE_Rescates y Retenciones CONSOLIDADO NACIONAL_2024.xlsx
@@ -6,21 +6,314 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Causal COIP / CODA_Retención" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="institucion_rescatista_Rescate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="forma_aviso_Rescate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="causal_coid_coda_Retención" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+  <si>
+    <t xml:space="preserve">Filiación institucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nro. de apariciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista OT de Bosques y Vida Silvestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista en control forestal y de vida silvestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista en control forestal y vida silvestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMBEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomberos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomberos de Milagro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAVEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUERPO DE BOMBEROS SHUSHUFINDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro de Paso Mansión Mascota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control fijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZ5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direccion de Bosques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección Zonal Imbabura/Oficina Técnica Tulcán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección de Ambiente del Municipio de Guayaquil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especialista de vida silvestre provincial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAAE TUNGURAGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAAE TUNGURAHUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE / OFICINA TÉCNICA PASTAZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE / PSNCFVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE CONTROL MOVIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE TUNGURAGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE UNIDAD DE BOSQUES Y VIDA SILVESTRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE-RECB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE-UPMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE/RBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE/RECB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAATE/RPFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministerio del Ambiente-Movil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina Técnica Azogues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina Técnica Tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSONA NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNCC-zb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNCCzb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSNCFVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puesto Fijo Baeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puesto Fijo de Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMCH-MAATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RVS-DZ9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RVS/DZ9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserva de Producción de Fauna Cuyabeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPMA-PN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad Movil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad Nacional de Policía de Proteción del Ambiente - Cañar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad de Bosques y Vida Silvestre-MAATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciudadano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de aviso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alerta ciudadana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROL VIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación verbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control Palma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo electronico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo electrónico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU 911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTREGA POR PARTE UPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega ciudadanía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega ciudadanía - GEOPARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega ciudadanía policia nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega cuidadania bombero shushufindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega por ciudadano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega por un ciudadano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entregado por ciudadano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entregado por la policia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entregado por los bomberos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallado en la Vía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLAMADA TELEFONICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llamada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llamada Tel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llamada Telefónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llamada telefonica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llamada telefonico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llamada telefónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPERATIVO MOVIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otro medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policia Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recepcion en la guardiania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recepción en la duardianía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recorrido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicación verbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrega personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llamada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otro medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por los bomberos</t>
+  </si>
   <si>
     <t xml:space="preserve">Causal COIP / CODA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nro. de apariciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción</t>
   </si>
   <si>
     <t xml:space="preserve">ART.85 R-COA</t>
@@ -395,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C2"/>
     </row>
@@ -404,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3"/>
     </row>
@@ -413,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4"/>
     </row>
@@ -422,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5"/>
     </row>
@@ -431,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C6"/>
     </row>
@@ -440,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7"/>
     </row>
@@ -449,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C8"/>
     </row>
@@ -458,13 +751,932 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="C9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>160</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>37</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14</v>
+      </c>
+      <c r="C35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n">
+        <v>33</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>260</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="n">
+        <v>147</v>
+      </c>
+      <c r="C52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="n">
+        <v>210</v>
+      </c>
+      <c r="C53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57"/>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58" t="n">
+        <v>183</v>
+      </c>
+      <c r="C58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="n">
+        <v>76</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="n">
+        <v>62</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="n">
+        <v>291</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="n">
+        <v>550</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="n">
+        <v>17</v>
+      </c>
+      <c r="C31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41" t="n">
+        <v>234</v>
+      </c>
+      <c r="C41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="n">
+        <v>156</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>108</v>
       </c>
       <c r="B10" t="n">
         <v>11</v>
